--- a/build2.7/results/2.7a_idc4_npe0_results.xlsx
+++ b/build2.7/results/2.7a_idc4_npe0_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{3401E023-BCDE-47FA-BA00-A722C99A49C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D7BD37-0FB8-41B5-B1BD-BD5958ACE5A0}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{3401E023-BCDE-47FA-BA00-A722C99A49C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3692D461-85DB-4A29-83A9-0408F4860141}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F912B4DF-FE3A-411D-B550-280A38837686}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{F912B4DF-FE3A-411D-B550-280A38837686}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -221,6 +221,33 @@
     <t>rapeseed</t>
   </si>
   <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>dairycow</t>
+  </si>
+  <si>
+    <t>dairyox</t>
+  </si>
+  <si>
+    <t>heifer</t>
+  </si>
+  <si>
+    <t>calves</t>
+  </si>
+  <si>
+    <t>swine</t>
+  </si>
+  <si>
+    <t>broiler</t>
+  </si>
+  <si>
+    <t>layinghens</t>
+  </si>
+  <si>
     <t>jan</t>
   </si>
   <si>
@@ -255,33 +282,6 @@
   </si>
   <si>
     <t>dec</t>
-  </si>
-  <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>sorghum</t>
-  </si>
-  <si>
-    <t>dairycow</t>
-  </si>
-  <si>
-    <t>dairyox</t>
-  </si>
-  <si>
-    <t>heifer</t>
-  </si>
-  <si>
-    <t>calves</t>
-  </si>
-  <si>
-    <t>swine</t>
-  </si>
-  <si>
-    <t>broiler</t>
-  </si>
-  <si>
-    <t>layinghens</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586F339-D352-44BB-9AC2-75B1472010B7}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1170,10 +1170,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>16675731965027.102</v>
+        <v>16675731965027.105</v>
       </c>
       <c r="D23">
-        <v>4833545497109.3047</v>
+        <v>4833545497109.3057</v>
       </c>
       <c r="E23">
         <v>86.7</v>
@@ -1182,13 +1182,13 @@
         <v>299.2</v>
       </c>
       <c r="G23">
-        <v>105.98311647090176</v>
+        <v>105.98311647090179</v>
       </c>
       <c r="H23">
-        <v>365.64175182461111</v>
+        <v>365.64175182461116</v>
       </c>
       <c r="I23">
-        <v>19.28311647090176</v>
+        <v>19.283116470901788</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1364,10 +1364,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>2300477212508.3511</v>
+        <v>2300477212508.3506</v>
       </c>
       <c r="D33">
-        <v>579903507060.33557</v>
+        <v>579903507060.33545</v>
       </c>
       <c r="E33">
         <v>18.399999999999999</v>
@@ -1376,13 +1376,13 @@
         <v>73.2</v>
       </c>
       <c r="G33">
-        <v>12.71529997336655</v>
+        <v>12.715299973366546</v>
       </c>
       <c r="H33">
-        <v>50.441594994345103</v>
+        <v>50.441594994345088</v>
       </c>
       <c r="I33">
-        <v>-5.6847000266334486</v>
+        <v>-5.6847000266334522</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1560,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>62470817739265.836</v>
+        <v>62470817739265.844</v>
       </c>
       <c r="D41">
         <v>27437911754699.109</v>
@@ -1572,7 +1572,7 @@
         <v>1471.1000000000004</v>
       </c>
       <c r="G41">
-        <v>601.61953558846164</v>
+        <v>601.61953558846176</v>
       </c>
       <c r="H41">
         <v>1369.7713110288669</v>
@@ -1830,7 +1830,7 @@
         <v>371565651808.20178</v>
       </c>
       <c r="D11">
-        <v>41890152402.277534</v>
+        <v>41890152402.277527</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -1839,7 +1839,7 @@
         <v>115.7</v>
       </c>
       <c r="G11">
-        <v>0.91850772971714678</v>
+        <v>0.91850772971714667</v>
       </c>
       <c r="H11">
         <v>8.1471635625910928</v>
@@ -1856,10 +1856,10 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>1810401185185.1904</v>
+        <v>1810401185185.1902</v>
       </c>
       <c r="D12">
-        <v>994725925925.92883</v>
+        <v>994725925925.92871</v>
       </c>
       <c r="E12">
         <v>9.6999999999999993</v>
@@ -1871,7 +1871,7 @@
         <v>21.810936449668691</v>
       </c>
       <c r="H12">
-        <v>39.695904338397021</v>
+        <v>39.695904338397014</v>
       </c>
       <c r="I12">
         <v>12.110936449668692</v>
@@ -1885,10 +1885,10 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>498954524444.44592</v>
+        <v>498954524444.44586</v>
       </c>
       <c r="D13">
-        <v>656519111111.11304</v>
+        <v>656519111111.11292</v>
       </c>
       <c r="E13">
         <v>14.2</v>
@@ -1897,13 +1897,13 @@
         <v>10.8</v>
       </c>
       <c r="G13">
-        <v>14.395218056781337</v>
+        <v>14.395218056781335</v>
       </c>
       <c r="H13">
-        <v>10.940365723153818</v>
+        <v>10.940365723153816</v>
       </c>
       <c r="I13">
-        <v>0.19521805678133752</v>
+        <v>0.19521805678133575</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1931,10 +1931,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>4009695761437.8418</v>
+        <v>4009695761437.8413</v>
       </c>
       <c r="D15">
-        <v>2032975189439.3203</v>
+        <v>2032975189439.3198</v>
       </c>
       <c r="E15">
         <v>138.9</v>
@@ -1949,7 +1949,7 @@
         <v>87.918910280557967</v>
       </c>
       <c r="I15">
-        <v>-94.323809207204661</v>
+        <v>-94.323809207204675</v>
       </c>
     </row>
   </sheetData>
@@ -2159,10 +2159,10 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>479889033179.24518</v>
+        <v>479889033179.24512</v>
       </c>
       <c r="D8">
-        <v>232775045197.53839</v>
+        <v>232775045197.53836</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -2174,7 +2174,7 @@
         <v>5.1039603830033515</v>
       </c>
       <c r="H8">
-        <v>10.522324725599711</v>
+        <v>10.522324725599709</v>
       </c>
       <c r="I8">
         <v>-11.896039616996649</v>
@@ -2263,10 +2263,10 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>4735639679723.4297</v>
+        <v>4735639679723.4287</v>
       </c>
       <c r="D12">
-        <v>9396110475641.7266</v>
+        <v>9396110475641.7246</v>
       </c>
       <c r="E12">
         <v>257.3</v>
@@ -2275,13 +2275,13 @@
         <v>162.1</v>
       </c>
       <c r="G12">
-        <v>206.02455723421895</v>
+        <v>206.02455723421892</v>
       </c>
       <c r="H12">
-        <v>103.83637684604635</v>
+        <v>103.83637684604632</v>
       </c>
       <c r="I12">
-        <v>-51.275442765781065</v>
+        <v>-51.275442765781094</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2292,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>5320285889756.4863</v>
+        <v>5320285889756.4854</v>
       </c>
       <c r="D13">
-        <v>9721007351369.1699</v>
+        <v>9721007351369.168</v>
       </c>
       <c r="E13">
         <v>396.4</v>
@@ -2304,13 +2304,13 @@
         <v>407</v>
       </c>
       <c r="G13">
-        <v>213.14843419820878</v>
+        <v>213.14843419820875</v>
       </c>
       <c r="H13">
-        <v>116.6556680701098</v>
+        <v>116.65566807010977</v>
       </c>
       <c r="I13">
-        <v>-183.25156580179123</v>
+        <v>-183.25156580179126</v>
       </c>
     </row>
   </sheetData>
@@ -2470,16 +2470,16 @@
         <v>92.90000000000002</v>
       </c>
       <c r="D7">
-        <v>61.844378376931168</v>
+        <v>61.844378376931161</v>
       </c>
       <c r="E7">
-        <v>88.187614145037145</v>
+        <v>88.187614145037131</v>
       </c>
       <c r="F7">
         <v>70.128190876350558</v>
       </c>
       <c r="G7">
-        <v>-8.2838124994193905</v>
+        <v>-8.2838124994193976</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2493,7 +2493,7 @@
         <v>60.9</v>
       </c>
       <c r="D8">
-        <v>22.676964099028488</v>
+        <v>22.676964099028485</v>
       </c>
       <c r="E8">
         <v>35.031229856930835</v>
@@ -2502,7 +2502,7 @@
         <v>64.733565426170472</v>
       </c>
       <c r="G8">
-        <v>-42.056601327141983</v>
+        <v>-42.056601327141991</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2761,19 +2761,19 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>16558680678938.088</v>
+        <v>16558680678938.09</v>
       </c>
       <c r="D12">
         <v>316.00000000000006</v>
       </c>
       <c r="E12">
-        <v>363.07521757060232</v>
+        <v>363.07521757060238</v>
       </c>
       <c r="F12">
-        <v>47.075217570602263</v>
+        <v>47.075217570602319</v>
       </c>
       <c r="G12">
-        <v>114.89722075019058</v>
+        <v>114.89722075019061</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2798,19 +2798,19 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>579903507060.33557</v>
+        <v>579903507060.33545</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14">
-        <v>12.71529997336655</v>
+        <v>12.715299973366546</v>
       </c>
       <c r="F14">
         <v>-30.284700026633452</v>
       </c>
       <c r="G14">
-        <v>29.570465054340815</v>
+        <v>29.570465054340804</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2953,7 +2953,7 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>235879038564.94376</v>
+        <v>235879038564.94373</v>
       </c>
       <c r="D22">
         <v>92.699999999999989</v>
@@ -2976,19 +2976,19 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>9485128312804.2266</v>
+        <v>9485128312804.2246</v>
       </c>
       <c r="D23">
         <v>303.7</v>
       </c>
       <c r="E23">
-        <v>207.97641385988291</v>
+        <v>207.97641385988288</v>
       </c>
       <c r="F23">
-        <v>-95.723586140117078</v>
+        <v>-95.723586140117106</v>
       </c>
       <c r="G23">
-        <v>68.480873842569295</v>
+        <v>68.480873842569281</v>
       </c>
     </row>
   </sheetData>
@@ -3211,10 +3211,10 @@
         <v>2352</v>
       </c>
       <c r="I4">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="O4">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="R4">
         <v>362.97000000000008</v>
@@ -3434,10 +3434,10 @@
         <v>35.4</v>
       </c>
       <c r="G12">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="I12">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J12">
         <v>362.97000000000008</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>725.93999999999994</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>725.93999999999994</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>725.93999999999994</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>725.93999999999994</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1626.06</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>1626.06</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>1626.06</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>1626.06</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>1626.06</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>1626.06</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>725.93999999999994</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>725.93999999999994</v>
@@ -3958,7 +3958,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>725.93999999999994</v>
@@ -3967,7 +3967,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G31">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J31">
         <v>362.97000000000008</v>
@@ -3993,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>725.93999999999994</v>
@@ -4002,7 +4002,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G32">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J32">
         <v>362.97000000000008</v>
@@ -4028,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>725.93999999999994</v>
@@ -4037,7 +4037,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G33">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J33">
         <v>362.97000000000008</v>
@@ -4063,7 +4063,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>725.93999999999994</v>
@@ -4072,7 +4072,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G34">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J34">
         <v>362.97000000000008</v>
@@ -4098,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>2352</v>
@@ -4107,7 +4107,7 @@
         <v>2352</v>
       </c>
       <c r="I35">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J35">
         <v>362.97000000000008</v>
@@ -4116,7 +4116,7 @@
         <v>35.4</v>
       </c>
       <c r="L35">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M35">
         <v>36.200000000000003</v>
@@ -4136,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>2352</v>
@@ -4145,7 +4145,7 @@
         <v>2352</v>
       </c>
       <c r="I36">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J36">
         <v>362.97000000000008</v>
@@ -4154,7 +4154,7 @@
         <v>35.4</v>
       </c>
       <c r="L36">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M36">
         <v>36.200000000000003</v>
@@ -4174,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>2352</v>
@@ -4183,7 +4183,7 @@
         <v>2352</v>
       </c>
       <c r="I37">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J37">
         <v>362.97000000000008</v>
@@ -4192,7 +4192,7 @@
         <v>35.4</v>
       </c>
       <c r="L37">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M37">
         <v>36.200000000000003</v>
@@ -4212,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>2352</v>
@@ -4221,7 +4221,7 @@
         <v>2352</v>
       </c>
       <c r="I38">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J38">
         <v>362.97000000000008</v>
@@ -4230,7 +4230,7 @@
         <v>35.4</v>
       </c>
       <c r="L38">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M38">
         <v>36.200000000000003</v>
@@ -4250,7 +4250,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>2352</v>
@@ -4259,7 +4259,7 @@
         <v>2352</v>
       </c>
       <c r="I39">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J39">
         <v>362.97000000000008</v>
@@ -4268,7 +4268,7 @@
         <v>35.4</v>
       </c>
       <c r="L39">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M39">
         <v>36.200000000000003</v>
@@ -4288,7 +4288,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>2352</v>
@@ -4297,7 +4297,7 @@
         <v>2352</v>
       </c>
       <c r="I40">
-        <v>1678.6000000000001</v>
+        <v>1678.6</v>
       </c>
       <c r="J40">
         <v>362.97000000000008</v>
@@ -4306,7 +4306,7 @@
         <v>35.4</v>
       </c>
       <c r="L40">
-        <v>2076.9700000000003</v>
+        <v>2076.9699999999998</v>
       </c>
       <c r="M40">
         <v>36.200000000000003</v>
@@ -4326,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>725.93999999999994</v>
@@ -4335,7 +4335,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G41">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J41">
         <v>362.97000000000008</v>
@@ -4361,7 +4361,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>725.93999999999994</v>
@@ -4370,7 +4370,7 @@
         <v>725.93999999999994</v>
       </c>
       <c r="G42">
-        <v>1714</v>
+        <v>1714.0000000000002</v>
       </c>
       <c r="J42">
         <v>362.97000000000008</v>
@@ -4401,7 +4401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC13E273-005F-44A5-A4FB-1F6C29EB1E33}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4427,10 +4427,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -4481,25 +4481,25 @@
         <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>19</v>
@@ -4560,13 +4560,13 @@
         <v>0.51743999999999901</v>
       </c>
       <c r="C3">
-        <v>5.656199999999989E-2</v>
+        <v>5.6561999999999897E-2</v>
       </c>
       <c r="D3">
         <v>2.3956019999999949E-2</v>
       </c>
       <c r="O3">
-        <v>9.4001599999999824E-2</v>
+        <v>9.400159999999981E-2</v>
       </c>
       <c r="S3">
         <v>0.59164109999999892</v>
@@ -4587,10 +4587,10 @@
         <v>0.30052074073249935</v>
       </c>
       <c r="AA3">
-        <v>2.9662292612434655E-2</v>
+        <v>2.9662292612434651E-2</v>
       </c>
       <c r="AB3">
-        <v>7.7723789945940425E-3</v>
+        <v>7.7723789945940433E-3</v>
       </c>
       <c r="AC3">
         <v>5.5791458850440706E-2</v>
@@ -4772,7 +4772,7 @@
         <v>0.59795801999999887</v>
       </c>
       <c r="E8">
-        <v>9.4001599999999824E-2</v>
+        <v>9.400159999999981E-2</v>
       </c>
       <c r="F8">
         <v>0.59164109999999892</v>
@@ -4781,7 +4781,7 @@
         <v>0.44334815999999916</v>
       </c>
       <c r="I8">
-        <v>2.9662292612434655E-2</v>
+        <v>2.9662292612434651E-2</v>
       </c>
       <c r="J8">
         <v>0.36519279939499438</v>
